--- a/LEDCON.MECH.ECO.xlsx
+++ b/LEDCON.MECH.ECO.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
   <si>
     <t>Release ID</t>
   </si>
@@ -69,6 +72,15 @@
   <si>
     <t>Reset button added to daughterboard, needed a slot cut in the core part 
 CORESIDE part split off from COREMID/COREBOT drawings to reduce confusion and simplify production going forward</t>
+  </si>
+  <si>
+    <t>LEDCON.MECH.v1.2</t>
+  </si>
+  <si>
+    <t>Material changed to 6061 Aluminum</t>
+  </si>
+  <si>
+    <t>Material change initiated by supplier, improvement in anodizability</t>
   </si>
 </sst>
 </file>
@@ -78,7 +90,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -95,12 +107,17 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Verdana"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -108,12 +125,12 @@
       <b val="1"/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,10 +141,56 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -147,32 +210,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -209,7 +306,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>492427</xdr:colOff>
+      <xdr:colOff>530526</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>394335</xdr:rowOff>
     </xdr:to>
@@ -220,8 +317,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="-133350"/>
-          <a:ext cx="4289728" cy="394336"/>
+          <a:off x="0" y="-1"/>
+          <a:ext cx="5648627" cy="394336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1507,7 +1604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1522,227 +1619,262 @@
     <col min="7" max="7" width="13.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.2188" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="1" customWidth="1"/>
     <col min="12" max="256" width="13" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.95" customHeight="1"/>
+    <row r="1" ht="31.95" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="B2" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="C2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="D2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="E2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="F2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="G2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="I2" t="s" s="2">
+      <c r="H2" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="J2" t="s" s="2">
+      <c r="I2" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="J2" t="s" s="6">
         <v>9</v>
+      </c>
+      <c r="K2" t="s" s="6">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="31" customHeight="1">
-      <c r="B3" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s" s="3">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="H3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s" s="3">
+      <c r="D3" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="J3" t="s" s="4">
+      <c r="H3" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="K3" s="5">
+      <c r="J3" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="K3" s="9">
         <v>42066</v>
       </c>
     </row>
-    <row r="4" ht="70" customHeight="1">
-      <c r="B4" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="4">
+    <row r="4" ht="82.2" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="F4" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s" s="4">
+      <c r="C4" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="H4" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s" s="4">
+      <c r="F4" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="K4" s="5">
+      <c r="H4" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="K4" s="9">
         <v>42100</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+    <row r="5" ht="47.8" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LEDCON.MECH.ECO.xlsx
+++ b/LEDCON.MECH.ECO.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -81,14 +81,24 @@
   </si>
   <si>
     <t>Material change initiated by supplier, improvement in anodizability</t>
+  </si>
+  <si>
+    <t>LEDCON.MECH.v1.3</t>
+  </si>
+  <si>
+    <t>Added BOM</t>
+  </si>
+  <si>
+    <t>Subassembly requires its own BOM (value add)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -229,7 +239,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -239,13 +249,13 @@
     <xf numFmtId="0" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -260,16 +270,19 @@
     <xf numFmtId="14" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="1" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -306,7 +319,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>530526</xdr:colOff>
+      <xdr:colOff>568626</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>394335</xdr:rowOff>
     </xdr:to>
@@ -317,8 +330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="-1"/>
-          <a:ext cx="5648627" cy="394336"/>
+          <a:off x="-1" y="-1"/>
+          <a:ext cx="5686728" cy="394336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1746,10 +1759,18 @@
       <c r="C5" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="7">
+        <v>12</v>
+      </c>
       <c r="H5" t="s" s="8">
         <v>21</v>
       </c>
@@ -1761,120 +1782,140 @@
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="B6" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s" s="7">
+        <v>25</v>
+      </c>
+      <c r="K6" s="12">
+        <v>42129</v>
+      </c>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LEDCON.MECH.ECO.xlsx
+++ b/LEDCON.MECH.ECO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t> </t>
   </si>
@@ -103,13 +103,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -130,12 +129,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -252,71 +245,71 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -337,15 +330,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>595440</xdr:colOff>
+      <xdr:colOff>622080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>328680</xdr:rowOff>
+      <xdr:rowOff>328320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -354,8 +347,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27000" y="0"/>
-          <a:ext cx="7412400" cy="328680"/>
+          <a:off x="54000" y="0"/>
+          <a:ext cx="7412040" cy="328320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -403,10 +396,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IV14"/>
+  <dimension ref="1:14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -440,6 +433,1019 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+      <c r="CB1" s="0"/>
+      <c r="CC1" s="0"/>
+      <c r="CD1" s="0"/>
+      <c r="CE1" s="0"/>
+      <c r="CF1" s="0"/>
+      <c r="CG1" s="0"/>
+      <c r="CH1" s="0"/>
+      <c r="CI1" s="0"/>
+      <c r="CJ1" s="0"/>
+      <c r="CK1" s="0"/>
+      <c r="CL1" s="0"/>
+      <c r="CM1" s="0"/>
+      <c r="CN1" s="0"/>
+      <c r="CO1" s="0"/>
+      <c r="CP1" s="0"/>
+      <c r="CQ1" s="0"/>
+      <c r="CR1" s="0"/>
+      <c r="CS1" s="0"/>
+      <c r="CT1" s="0"/>
+      <c r="CU1" s="0"/>
+      <c r="CV1" s="0"/>
+      <c r="CW1" s="0"/>
+      <c r="CX1" s="0"/>
+      <c r="CY1" s="0"/>
+      <c r="CZ1" s="0"/>
+      <c r="DA1" s="0"/>
+      <c r="DB1" s="0"/>
+      <c r="DC1" s="0"/>
+      <c r="DD1" s="0"/>
+      <c r="DE1" s="0"/>
+      <c r="DF1" s="0"/>
+      <c r="DG1" s="0"/>
+      <c r="DH1" s="0"/>
+      <c r="DI1" s="0"/>
+      <c r="DJ1" s="0"/>
+      <c r="DK1" s="0"/>
+      <c r="DL1" s="0"/>
+      <c r="DM1" s="0"/>
+      <c r="DN1" s="0"/>
+      <c r="DO1" s="0"/>
+      <c r="DP1" s="0"/>
+      <c r="DQ1" s="0"/>
+      <c r="DR1" s="0"/>
+      <c r="DS1" s="0"/>
+      <c r="DT1" s="0"/>
+      <c r="DU1" s="0"/>
+      <c r="DV1" s="0"/>
+      <c r="DW1" s="0"/>
+      <c r="DX1" s="0"/>
+      <c r="DY1" s="0"/>
+      <c r="DZ1" s="0"/>
+      <c r="EA1" s="0"/>
+      <c r="EB1" s="0"/>
+      <c r="EC1" s="0"/>
+      <c r="ED1" s="0"/>
+      <c r="EE1" s="0"/>
+      <c r="EF1" s="0"/>
+      <c r="EG1" s="0"/>
+      <c r="EH1" s="0"/>
+      <c r="EI1" s="0"/>
+      <c r="EJ1" s="0"/>
+      <c r="EK1" s="0"/>
+      <c r="EL1" s="0"/>
+      <c r="EM1" s="0"/>
+      <c r="EN1" s="0"/>
+      <c r="EO1" s="0"/>
+      <c r="EP1" s="0"/>
+      <c r="EQ1" s="0"/>
+      <c r="ER1" s="0"/>
+      <c r="ES1" s="0"/>
+      <c r="ET1" s="0"/>
+      <c r="EU1" s="0"/>
+      <c r="EV1" s="0"/>
+      <c r="EW1" s="0"/>
+      <c r="EX1" s="0"/>
+      <c r="EY1" s="0"/>
+      <c r="EZ1" s="0"/>
+      <c r="FA1" s="0"/>
+      <c r="FB1" s="0"/>
+      <c r="FC1" s="0"/>
+      <c r="FD1" s="0"/>
+      <c r="FE1" s="0"/>
+      <c r="FF1" s="0"/>
+      <c r="FG1" s="0"/>
+      <c r="FH1" s="0"/>
+      <c r="FI1" s="0"/>
+      <c r="FJ1" s="0"/>
+      <c r="FK1" s="0"/>
+      <c r="FL1" s="0"/>
+      <c r="FM1" s="0"/>
+      <c r="FN1" s="0"/>
+      <c r="FO1" s="0"/>
+      <c r="FP1" s="0"/>
+      <c r="FQ1" s="0"/>
+      <c r="FR1" s="0"/>
+      <c r="FS1" s="0"/>
+      <c r="FT1" s="0"/>
+      <c r="FU1" s="0"/>
+      <c r="FV1" s="0"/>
+      <c r="FW1" s="0"/>
+      <c r="FX1" s="0"/>
+      <c r="FY1" s="0"/>
+      <c r="FZ1" s="0"/>
+      <c r="GA1" s="0"/>
+      <c r="GB1" s="0"/>
+      <c r="GC1" s="0"/>
+      <c r="GD1" s="0"/>
+      <c r="GE1" s="0"/>
+      <c r="GF1" s="0"/>
+      <c r="GG1" s="0"/>
+      <c r="GH1" s="0"/>
+      <c r="GI1" s="0"/>
+      <c r="GJ1" s="0"/>
+      <c r="GK1" s="0"/>
+      <c r="GL1" s="0"/>
+      <c r="GM1" s="0"/>
+      <c r="GN1" s="0"/>
+      <c r="GO1" s="0"/>
+      <c r="GP1" s="0"/>
+      <c r="GQ1" s="0"/>
+      <c r="GR1" s="0"/>
+      <c r="GS1" s="0"/>
+      <c r="GT1" s="0"/>
+      <c r="GU1" s="0"/>
+      <c r="GV1" s="0"/>
+      <c r="GW1" s="0"/>
+      <c r="GX1" s="0"/>
+      <c r="GY1" s="0"/>
+      <c r="GZ1" s="0"/>
+      <c r="HA1" s="0"/>
+      <c r="HB1" s="0"/>
+      <c r="HC1" s="0"/>
+      <c r="HD1" s="0"/>
+      <c r="HE1" s="0"/>
+      <c r="HF1" s="0"/>
+      <c r="HG1" s="0"/>
+      <c r="HH1" s="0"/>
+      <c r="HI1" s="0"/>
+      <c r="HJ1" s="0"/>
+      <c r="HK1" s="0"/>
+      <c r="HL1" s="0"/>
+      <c r="HM1" s="0"/>
+      <c r="HN1" s="0"/>
+      <c r="HO1" s="0"/>
+      <c r="HP1" s="0"/>
+      <c r="HQ1" s="0"/>
+      <c r="HR1" s="0"/>
+      <c r="HS1" s="0"/>
+      <c r="HT1" s="0"/>
+      <c r="HU1" s="0"/>
+      <c r="HV1" s="0"/>
+      <c r="HW1" s="0"/>
+      <c r="HX1" s="0"/>
+      <c r="HY1" s="0"/>
+      <c r="HZ1" s="0"/>
+      <c r="IA1" s="0"/>
+      <c r="IB1" s="0"/>
+      <c r="IC1" s="0"/>
+      <c r="ID1" s="0"/>
+      <c r="IE1" s="0"/>
+      <c r="IF1" s="0"/>
+      <c r="IG1" s="0"/>
+      <c r="IH1" s="0"/>
+      <c r="II1" s="0"/>
+      <c r="IJ1" s="0"/>
+      <c r="IK1" s="0"/>
+      <c r="IL1" s="0"/>
+      <c r="IM1" s="0"/>
+      <c r="IN1" s="0"/>
+      <c r="IO1" s="0"/>
+      <c r="IP1" s="0"/>
+      <c r="IQ1" s="0"/>
+      <c r="IR1" s="0"/>
+      <c r="IS1" s="0"/>
+      <c r="IT1" s="0"/>
+      <c r="IU1" s="0"/>
+      <c r="IV1" s="0"/>
+      <c r="IW1" s="0"/>
+      <c r="IX1" s="0"/>
+      <c r="IY1" s="0"/>
+      <c r="IZ1" s="0"/>
+      <c r="JA1" s="0"/>
+      <c r="JB1" s="0"/>
+      <c r="JC1" s="0"/>
+      <c r="JD1" s="0"/>
+      <c r="JE1" s="0"/>
+      <c r="JF1" s="0"/>
+      <c r="JG1" s="0"/>
+      <c r="JH1" s="0"/>
+      <c r="JI1" s="0"/>
+      <c r="JJ1" s="0"/>
+      <c r="JK1" s="0"/>
+      <c r="JL1" s="0"/>
+      <c r="JM1" s="0"/>
+      <c r="JN1" s="0"/>
+      <c r="JO1" s="0"/>
+      <c r="JP1" s="0"/>
+      <c r="JQ1" s="0"/>
+      <c r="JR1" s="0"/>
+      <c r="JS1" s="0"/>
+      <c r="JT1" s="0"/>
+      <c r="JU1" s="0"/>
+      <c r="JV1" s="0"/>
+      <c r="JW1" s="0"/>
+      <c r="JX1" s="0"/>
+      <c r="JY1" s="0"/>
+      <c r="JZ1" s="0"/>
+      <c r="KA1" s="0"/>
+      <c r="KB1" s="0"/>
+      <c r="KC1" s="0"/>
+      <c r="KD1" s="0"/>
+      <c r="KE1" s="0"/>
+      <c r="KF1" s="0"/>
+      <c r="KG1" s="0"/>
+      <c r="KH1" s="0"/>
+      <c r="KI1" s="0"/>
+      <c r="KJ1" s="0"/>
+      <c r="KK1" s="0"/>
+      <c r="KL1" s="0"/>
+      <c r="KM1" s="0"/>
+      <c r="KN1" s="0"/>
+      <c r="KO1" s="0"/>
+      <c r="KP1" s="0"/>
+      <c r="KQ1" s="0"/>
+      <c r="KR1" s="0"/>
+      <c r="KS1" s="0"/>
+      <c r="KT1" s="0"/>
+      <c r="KU1" s="0"/>
+      <c r="KV1" s="0"/>
+      <c r="KW1" s="0"/>
+      <c r="KX1" s="0"/>
+      <c r="KY1" s="0"/>
+      <c r="KZ1" s="0"/>
+      <c r="LA1" s="0"/>
+      <c r="LB1" s="0"/>
+      <c r="LC1" s="0"/>
+      <c r="LD1" s="0"/>
+      <c r="LE1" s="0"/>
+      <c r="LF1" s="0"/>
+      <c r="LG1" s="0"/>
+      <c r="LH1" s="0"/>
+      <c r="LI1" s="0"/>
+      <c r="LJ1" s="0"/>
+      <c r="LK1" s="0"/>
+      <c r="LL1" s="0"/>
+      <c r="LM1" s="0"/>
+      <c r="LN1" s="0"/>
+      <c r="LO1" s="0"/>
+      <c r="LP1" s="0"/>
+      <c r="LQ1" s="0"/>
+      <c r="LR1" s="0"/>
+      <c r="LS1" s="0"/>
+      <c r="LT1" s="0"/>
+      <c r="LU1" s="0"/>
+      <c r="LV1" s="0"/>
+      <c r="LW1" s="0"/>
+      <c r="LX1" s="0"/>
+      <c r="LY1" s="0"/>
+      <c r="LZ1" s="0"/>
+      <c r="MA1" s="0"/>
+      <c r="MB1" s="0"/>
+      <c r="MC1" s="0"/>
+      <c r="MD1" s="0"/>
+      <c r="ME1" s="0"/>
+      <c r="MF1" s="0"/>
+      <c r="MG1" s="0"/>
+      <c r="MH1" s="0"/>
+      <c r="MI1" s="0"/>
+      <c r="MJ1" s="0"/>
+      <c r="MK1" s="0"/>
+      <c r="ML1" s="0"/>
+      <c r="MM1" s="0"/>
+      <c r="MN1" s="0"/>
+      <c r="MO1" s="0"/>
+      <c r="MP1" s="0"/>
+      <c r="MQ1" s="0"/>
+      <c r="MR1" s="0"/>
+      <c r="MS1" s="0"/>
+      <c r="MT1" s="0"/>
+      <c r="MU1" s="0"/>
+      <c r="MV1" s="0"/>
+      <c r="MW1" s="0"/>
+      <c r="MX1" s="0"/>
+      <c r="MY1" s="0"/>
+      <c r="MZ1" s="0"/>
+      <c r="NA1" s="0"/>
+      <c r="NB1" s="0"/>
+      <c r="NC1" s="0"/>
+      <c r="ND1" s="0"/>
+      <c r="NE1" s="0"/>
+      <c r="NF1" s="0"/>
+      <c r="NG1" s="0"/>
+      <c r="NH1" s="0"/>
+      <c r="NI1" s="0"/>
+      <c r="NJ1" s="0"/>
+      <c r="NK1" s="0"/>
+      <c r="NL1" s="0"/>
+      <c r="NM1" s="0"/>
+      <c r="NN1" s="0"/>
+      <c r="NO1" s="0"/>
+      <c r="NP1" s="0"/>
+      <c r="NQ1" s="0"/>
+      <c r="NR1" s="0"/>
+      <c r="NS1" s="0"/>
+      <c r="NT1" s="0"/>
+      <c r="NU1" s="0"/>
+      <c r="NV1" s="0"/>
+      <c r="NW1" s="0"/>
+      <c r="NX1" s="0"/>
+      <c r="NY1" s="0"/>
+      <c r="NZ1" s="0"/>
+      <c r="OA1" s="0"/>
+      <c r="OB1" s="0"/>
+      <c r="OC1" s="0"/>
+      <c r="OD1" s="0"/>
+      <c r="OE1" s="0"/>
+      <c r="OF1" s="0"/>
+      <c r="OG1" s="0"/>
+      <c r="OH1" s="0"/>
+      <c r="OI1" s="0"/>
+      <c r="OJ1" s="0"/>
+      <c r="OK1" s="0"/>
+      <c r="OL1" s="0"/>
+      <c r="OM1" s="0"/>
+      <c r="ON1" s="0"/>
+      <c r="OO1" s="0"/>
+      <c r="OP1" s="0"/>
+      <c r="OQ1" s="0"/>
+      <c r="OR1" s="0"/>
+      <c r="OS1" s="0"/>
+      <c r="OT1" s="0"/>
+      <c r="OU1" s="0"/>
+      <c r="OV1" s="0"/>
+      <c r="OW1" s="0"/>
+      <c r="OX1" s="0"/>
+      <c r="OY1" s="0"/>
+      <c r="OZ1" s="0"/>
+      <c r="PA1" s="0"/>
+      <c r="PB1" s="0"/>
+      <c r="PC1" s="0"/>
+      <c r="PD1" s="0"/>
+      <c r="PE1" s="0"/>
+      <c r="PF1" s="0"/>
+      <c r="PG1" s="0"/>
+      <c r="PH1" s="0"/>
+      <c r="PI1" s="0"/>
+      <c r="PJ1" s="0"/>
+      <c r="PK1" s="0"/>
+      <c r="PL1" s="0"/>
+      <c r="PM1" s="0"/>
+      <c r="PN1" s="0"/>
+      <c r="PO1" s="0"/>
+      <c r="PP1" s="0"/>
+      <c r="PQ1" s="0"/>
+      <c r="PR1" s="0"/>
+      <c r="PS1" s="0"/>
+      <c r="PT1" s="0"/>
+      <c r="PU1" s="0"/>
+      <c r="PV1" s="0"/>
+      <c r="PW1" s="0"/>
+      <c r="PX1" s="0"/>
+      <c r="PY1" s="0"/>
+      <c r="PZ1" s="0"/>
+      <c r="QA1" s="0"/>
+      <c r="QB1" s="0"/>
+      <c r="QC1" s="0"/>
+      <c r="QD1" s="0"/>
+      <c r="QE1" s="0"/>
+      <c r="QF1" s="0"/>
+      <c r="QG1" s="0"/>
+      <c r="QH1" s="0"/>
+      <c r="QI1" s="0"/>
+      <c r="QJ1" s="0"/>
+      <c r="QK1" s="0"/>
+      <c r="QL1" s="0"/>
+      <c r="QM1" s="0"/>
+      <c r="QN1" s="0"/>
+      <c r="QO1" s="0"/>
+      <c r="QP1" s="0"/>
+      <c r="QQ1" s="0"/>
+      <c r="QR1" s="0"/>
+      <c r="QS1" s="0"/>
+      <c r="QT1" s="0"/>
+      <c r="QU1" s="0"/>
+      <c r="QV1" s="0"/>
+      <c r="QW1" s="0"/>
+      <c r="QX1" s="0"/>
+      <c r="QY1" s="0"/>
+      <c r="QZ1" s="0"/>
+      <c r="RA1" s="0"/>
+      <c r="RB1" s="0"/>
+      <c r="RC1" s="0"/>
+      <c r="RD1" s="0"/>
+      <c r="RE1" s="0"/>
+      <c r="RF1" s="0"/>
+      <c r="RG1" s="0"/>
+      <c r="RH1" s="0"/>
+      <c r="RI1" s="0"/>
+      <c r="RJ1" s="0"/>
+      <c r="RK1" s="0"/>
+      <c r="RL1" s="0"/>
+      <c r="RM1" s="0"/>
+      <c r="RN1" s="0"/>
+      <c r="RO1" s="0"/>
+      <c r="RP1" s="0"/>
+      <c r="RQ1" s="0"/>
+      <c r="RR1" s="0"/>
+      <c r="RS1" s="0"/>
+      <c r="RT1" s="0"/>
+      <c r="RU1" s="0"/>
+      <c r="RV1" s="0"/>
+      <c r="RW1" s="0"/>
+      <c r="RX1" s="0"/>
+      <c r="RY1" s="0"/>
+      <c r="RZ1" s="0"/>
+      <c r="SA1" s="0"/>
+      <c r="SB1" s="0"/>
+      <c r="SC1" s="0"/>
+      <c r="SD1" s="0"/>
+      <c r="SE1" s="0"/>
+      <c r="SF1" s="0"/>
+      <c r="SG1" s="0"/>
+      <c r="SH1" s="0"/>
+      <c r="SI1" s="0"/>
+      <c r="SJ1" s="0"/>
+      <c r="SK1" s="0"/>
+      <c r="SL1" s="0"/>
+      <c r="SM1" s="0"/>
+      <c r="SN1" s="0"/>
+      <c r="SO1" s="0"/>
+      <c r="SP1" s="0"/>
+      <c r="SQ1" s="0"/>
+      <c r="SR1" s="0"/>
+      <c r="SS1" s="0"/>
+      <c r="ST1" s="0"/>
+      <c r="SU1" s="0"/>
+      <c r="SV1" s="0"/>
+      <c r="SW1" s="0"/>
+      <c r="SX1" s="0"/>
+      <c r="SY1" s="0"/>
+      <c r="SZ1" s="0"/>
+      <c r="TA1" s="0"/>
+      <c r="TB1" s="0"/>
+      <c r="TC1" s="0"/>
+      <c r="TD1" s="0"/>
+      <c r="TE1" s="0"/>
+      <c r="TF1" s="0"/>
+      <c r="TG1" s="0"/>
+      <c r="TH1" s="0"/>
+      <c r="TI1" s="0"/>
+      <c r="TJ1" s="0"/>
+      <c r="TK1" s="0"/>
+      <c r="TL1" s="0"/>
+      <c r="TM1" s="0"/>
+      <c r="TN1" s="0"/>
+      <c r="TO1" s="0"/>
+      <c r="TP1" s="0"/>
+      <c r="TQ1" s="0"/>
+      <c r="TR1" s="0"/>
+      <c r="TS1" s="0"/>
+      <c r="TT1" s="0"/>
+      <c r="TU1" s="0"/>
+      <c r="TV1" s="0"/>
+      <c r="TW1" s="0"/>
+      <c r="TX1" s="0"/>
+      <c r="TY1" s="0"/>
+      <c r="TZ1" s="0"/>
+      <c r="UA1" s="0"/>
+      <c r="UB1" s="0"/>
+      <c r="UC1" s="0"/>
+      <c r="UD1" s="0"/>
+      <c r="UE1" s="0"/>
+      <c r="UF1" s="0"/>
+      <c r="UG1" s="0"/>
+      <c r="UH1" s="0"/>
+      <c r="UI1" s="0"/>
+      <c r="UJ1" s="0"/>
+      <c r="UK1" s="0"/>
+      <c r="UL1" s="0"/>
+      <c r="UM1" s="0"/>
+      <c r="UN1" s="0"/>
+      <c r="UO1" s="0"/>
+      <c r="UP1" s="0"/>
+      <c r="UQ1" s="0"/>
+      <c r="UR1" s="0"/>
+      <c r="US1" s="0"/>
+      <c r="UT1" s="0"/>
+      <c r="UU1" s="0"/>
+      <c r="UV1" s="0"/>
+      <c r="UW1" s="0"/>
+      <c r="UX1" s="0"/>
+      <c r="UY1" s="0"/>
+      <c r="UZ1" s="0"/>
+      <c r="VA1" s="0"/>
+      <c r="VB1" s="0"/>
+      <c r="VC1" s="0"/>
+      <c r="VD1" s="0"/>
+      <c r="VE1" s="0"/>
+      <c r="VF1" s="0"/>
+      <c r="VG1" s="0"/>
+      <c r="VH1" s="0"/>
+      <c r="VI1" s="0"/>
+      <c r="VJ1" s="0"/>
+      <c r="VK1" s="0"/>
+      <c r="VL1" s="0"/>
+      <c r="VM1" s="0"/>
+      <c r="VN1" s="0"/>
+      <c r="VO1" s="0"/>
+      <c r="VP1" s="0"/>
+      <c r="VQ1" s="0"/>
+      <c r="VR1" s="0"/>
+      <c r="VS1" s="0"/>
+      <c r="VT1" s="0"/>
+      <c r="VU1" s="0"/>
+      <c r="VV1" s="0"/>
+      <c r="VW1" s="0"/>
+      <c r="VX1" s="0"/>
+      <c r="VY1" s="0"/>
+      <c r="VZ1" s="0"/>
+      <c r="WA1" s="0"/>
+      <c r="WB1" s="0"/>
+      <c r="WC1" s="0"/>
+      <c r="WD1" s="0"/>
+      <c r="WE1" s="0"/>
+      <c r="WF1" s="0"/>
+      <c r="WG1" s="0"/>
+      <c r="WH1" s="0"/>
+      <c r="WI1" s="0"/>
+      <c r="WJ1" s="0"/>
+      <c r="WK1" s="0"/>
+      <c r="WL1" s="0"/>
+      <c r="WM1" s="0"/>
+      <c r="WN1" s="0"/>
+      <c r="WO1" s="0"/>
+      <c r="WP1" s="0"/>
+      <c r="WQ1" s="0"/>
+      <c r="WR1" s="0"/>
+      <c r="WS1" s="0"/>
+      <c r="WT1" s="0"/>
+      <c r="WU1" s="0"/>
+      <c r="WV1" s="0"/>
+      <c r="WW1" s="0"/>
+      <c r="WX1" s="0"/>
+      <c r="WY1" s="0"/>
+      <c r="WZ1" s="0"/>
+      <c r="XA1" s="0"/>
+      <c r="XB1" s="0"/>
+      <c r="XC1" s="0"/>
+      <c r="XD1" s="0"/>
+      <c r="XE1" s="0"/>
+      <c r="XF1" s="0"/>
+      <c r="XG1" s="0"/>
+      <c r="XH1" s="0"/>
+      <c r="XI1" s="0"/>
+      <c r="XJ1" s="0"/>
+      <c r="XK1" s="0"/>
+      <c r="XL1" s="0"/>
+      <c r="XM1" s="0"/>
+      <c r="XN1" s="0"/>
+      <c r="XO1" s="0"/>
+      <c r="XP1" s="0"/>
+      <c r="XQ1" s="0"/>
+      <c r="XR1" s="0"/>
+      <c r="XS1" s="0"/>
+      <c r="XT1" s="0"/>
+      <c r="XU1" s="0"/>
+      <c r="XV1" s="0"/>
+      <c r="XW1" s="0"/>
+      <c r="XX1" s="0"/>
+      <c r="XY1" s="0"/>
+      <c r="XZ1" s="0"/>
+      <c r="YA1" s="0"/>
+      <c r="YB1" s="0"/>
+      <c r="YC1" s="0"/>
+      <c r="YD1" s="0"/>
+      <c r="YE1" s="0"/>
+      <c r="YF1" s="0"/>
+      <c r="YG1" s="0"/>
+      <c r="YH1" s="0"/>
+      <c r="YI1" s="0"/>
+      <c r="YJ1" s="0"/>
+      <c r="YK1" s="0"/>
+      <c r="YL1" s="0"/>
+      <c r="YM1" s="0"/>
+      <c r="YN1" s="0"/>
+      <c r="YO1" s="0"/>
+      <c r="YP1" s="0"/>
+      <c r="YQ1" s="0"/>
+      <c r="YR1" s="0"/>
+      <c r="YS1" s="0"/>
+      <c r="YT1" s="0"/>
+      <c r="YU1" s="0"/>
+      <c r="YV1" s="0"/>
+      <c r="YW1" s="0"/>
+      <c r="YX1" s="0"/>
+      <c r="YY1" s="0"/>
+      <c r="YZ1" s="0"/>
+      <c r="ZA1" s="0"/>
+      <c r="ZB1" s="0"/>
+      <c r="ZC1" s="0"/>
+      <c r="ZD1" s="0"/>
+      <c r="ZE1" s="0"/>
+      <c r="ZF1" s="0"/>
+      <c r="ZG1" s="0"/>
+      <c r="ZH1" s="0"/>
+      <c r="ZI1" s="0"/>
+      <c r="ZJ1" s="0"/>
+      <c r="ZK1" s="0"/>
+      <c r="ZL1" s="0"/>
+      <c r="ZM1" s="0"/>
+      <c r="ZN1" s="0"/>
+      <c r="ZO1" s="0"/>
+      <c r="ZP1" s="0"/>
+      <c r="ZQ1" s="0"/>
+      <c r="ZR1" s="0"/>
+      <c r="ZS1" s="0"/>
+      <c r="ZT1" s="0"/>
+      <c r="ZU1" s="0"/>
+      <c r="ZV1" s="0"/>
+      <c r="ZW1" s="0"/>
+      <c r="ZX1" s="0"/>
+      <c r="ZY1" s="0"/>
+      <c r="ZZ1" s="0"/>
+      <c r="AAA1" s="0"/>
+      <c r="AAB1" s="0"/>
+      <c r="AAC1" s="0"/>
+      <c r="AAD1" s="0"/>
+      <c r="AAE1" s="0"/>
+      <c r="AAF1" s="0"/>
+      <c r="AAG1" s="0"/>
+      <c r="AAH1" s="0"/>
+      <c r="AAI1" s="0"/>
+      <c r="AAJ1" s="0"/>
+      <c r="AAK1" s="0"/>
+      <c r="AAL1" s="0"/>
+      <c r="AAM1" s="0"/>
+      <c r="AAN1" s="0"/>
+      <c r="AAO1" s="0"/>
+      <c r="AAP1" s="0"/>
+      <c r="AAQ1" s="0"/>
+      <c r="AAR1" s="0"/>
+      <c r="AAS1" s="0"/>
+      <c r="AAT1" s="0"/>
+      <c r="AAU1" s="0"/>
+      <c r="AAV1" s="0"/>
+      <c r="AAW1" s="0"/>
+      <c r="AAX1" s="0"/>
+      <c r="AAY1" s="0"/>
+      <c r="AAZ1" s="0"/>
+      <c r="ABA1" s="0"/>
+      <c r="ABB1" s="0"/>
+      <c r="ABC1" s="0"/>
+      <c r="ABD1" s="0"/>
+      <c r="ABE1" s="0"/>
+      <c r="ABF1" s="0"/>
+      <c r="ABG1" s="0"/>
+      <c r="ABH1" s="0"/>
+      <c r="ABI1" s="0"/>
+      <c r="ABJ1" s="0"/>
+      <c r="ABK1" s="0"/>
+      <c r="ABL1" s="0"/>
+      <c r="ABM1" s="0"/>
+      <c r="ABN1" s="0"/>
+      <c r="ABO1" s="0"/>
+      <c r="ABP1" s="0"/>
+      <c r="ABQ1" s="0"/>
+      <c r="ABR1" s="0"/>
+      <c r="ABS1" s="0"/>
+      <c r="ABT1" s="0"/>
+      <c r="ABU1" s="0"/>
+      <c r="ABV1" s="0"/>
+      <c r="ABW1" s="0"/>
+      <c r="ABX1" s="0"/>
+      <c r="ABY1" s="0"/>
+      <c r="ABZ1" s="0"/>
+      <c r="ACA1" s="0"/>
+      <c r="ACB1" s="0"/>
+      <c r="ACC1" s="0"/>
+      <c r="ACD1" s="0"/>
+      <c r="ACE1" s="0"/>
+      <c r="ACF1" s="0"/>
+      <c r="ACG1" s="0"/>
+      <c r="ACH1" s="0"/>
+      <c r="ACI1" s="0"/>
+      <c r="ACJ1" s="0"/>
+      <c r="ACK1" s="0"/>
+      <c r="ACL1" s="0"/>
+      <c r="ACM1" s="0"/>
+      <c r="ACN1" s="0"/>
+      <c r="ACO1" s="0"/>
+      <c r="ACP1" s="0"/>
+      <c r="ACQ1" s="0"/>
+      <c r="ACR1" s="0"/>
+      <c r="ACS1" s="0"/>
+      <c r="ACT1" s="0"/>
+      <c r="ACU1" s="0"/>
+      <c r="ACV1" s="0"/>
+      <c r="ACW1" s="0"/>
+      <c r="ACX1" s="0"/>
+      <c r="ACY1" s="0"/>
+      <c r="ACZ1" s="0"/>
+      <c r="ADA1" s="0"/>
+      <c r="ADB1" s="0"/>
+      <c r="ADC1" s="0"/>
+      <c r="ADD1" s="0"/>
+      <c r="ADE1" s="0"/>
+      <c r="ADF1" s="0"/>
+      <c r="ADG1" s="0"/>
+      <c r="ADH1" s="0"/>
+      <c r="ADI1" s="0"/>
+      <c r="ADJ1" s="0"/>
+      <c r="ADK1" s="0"/>
+      <c r="ADL1" s="0"/>
+      <c r="ADM1" s="0"/>
+      <c r="ADN1" s="0"/>
+      <c r="ADO1" s="0"/>
+      <c r="ADP1" s="0"/>
+      <c r="ADQ1" s="0"/>
+      <c r="ADR1" s="0"/>
+      <c r="ADS1" s="0"/>
+      <c r="ADT1" s="0"/>
+      <c r="ADU1" s="0"/>
+      <c r="ADV1" s="0"/>
+      <c r="ADW1" s="0"/>
+      <c r="ADX1" s="0"/>
+      <c r="ADY1" s="0"/>
+      <c r="ADZ1" s="0"/>
+      <c r="AEA1" s="0"/>
+      <c r="AEB1" s="0"/>
+      <c r="AEC1" s="0"/>
+      <c r="AED1" s="0"/>
+      <c r="AEE1" s="0"/>
+      <c r="AEF1" s="0"/>
+      <c r="AEG1" s="0"/>
+      <c r="AEH1" s="0"/>
+      <c r="AEI1" s="0"/>
+      <c r="AEJ1" s="0"/>
+      <c r="AEK1" s="0"/>
+      <c r="AEL1" s="0"/>
+      <c r="AEM1" s="0"/>
+      <c r="AEN1" s="0"/>
+      <c r="AEO1" s="0"/>
+      <c r="AEP1" s="0"/>
+      <c r="AEQ1" s="0"/>
+      <c r="AER1" s="0"/>
+      <c r="AES1" s="0"/>
+      <c r="AET1" s="0"/>
+      <c r="AEU1" s="0"/>
+      <c r="AEV1" s="0"/>
+      <c r="AEW1" s="0"/>
+      <c r="AEX1" s="0"/>
+      <c r="AEY1" s="0"/>
+      <c r="AEZ1" s="0"/>
+      <c r="AFA1" s="0"/>
+      <c r="AFB1" s="0"/>
+      <c r="AFC1" s="0"/>
+      <c r="AFD1" s="0"/>
+      <c r="AFE1" s="0"/>
+      <c r="AFF1" s="0"/>
+      <c r="AFG1" s="0"/>
+      <c r="AFH1" s="0"/>
+      <c r="AFI1" s="0"/>
+      <c r="AFJ1" s="0"/>
+      <c r="AFK1" s="0"/>
+      <c r="AFL1" s="0"/>
+      <c r="AFM1" s="0"/>
+      <c r="AFN1" s="0"/>
+      <c r="AFO1" s="0"/>
+      <c r="AFP1" s="0"/>
+      <c r="AFQ1" s="0"/>
+      <c r="AFR1" s="0"/>
+      <c r="AFS1" s="0"/>
+      <c r="AFT1" s="0"/>
+      <c r="AFU1" s="0"/>
+      <c r="AFV1" s="0"/>
+      <c r="AFW1" s="0"/>
+      <c r="AFX1" s="0"/>
+      <c r="AFY1" s="0"/>
+      <c r="AFZ1" s="0"/>
+      <c r="AGA1" s="0"/>
+      <c r="AGB1" s="0"/>
+      <c r="AGC1" s="0"/>
+      <c r="AGD1" s="0"/>
+      <c r="AGE1" s="0"/>
+      <c r="AGF1" s="0"/>
+      <c r="AGG1" s="0"/>
+      <c r="AGH1" s="0"/>
+      <c r="AGI1" s="0"/>
+      <c r="AGJ1" s="0"/>
+      <c r="AGK1" s="0"/>
+      <c r="AGL1" s="0"/>
+      <c r="AGM1" s="0"/>
+      <c r="AGN1" s="0"/>
+      <c r="AGO1" s="0"/>
+      <c r="AGP1" s="0"/>
+      <c r="AGQ1" s="0"/>
+      <c r="AGR1" s="0"/>
+      <c r="AGS1" s="0"/>
+      <c r="AGT1" s="0"/>
+      <c r="AGU1" s="0"/>
+      <c r="AGV1" s="0"/>
+      <c r="AGW1" s="0"/>
+      <c r="AGX1" s="0"/>
+      <c r="AGY1" s="0"/>
+      <c r="AGZ1" s="0"/>
+      <c r="AHA1" s="0"/>
+      <c r="AHB1" s="0"/>
+      <c r="AHC1" s="0"/>
+      <c r="AHD1" s="0"/>
+      <c r="AHE1" s="0"/>
+      <c r="AHF1" s="0"/>
+      <c r="AHG1" s="0"/>
+      <c r="AHH1" s="0"/>
+      <c r="AHI1" s="0"/>
+      <c r="AHJ1" s="0"/>
+      <c r="AHK1" s="0"/>
+      <c r="AHL1" s="0"/>
+      <c r="AHM1" s="0"/>
+      <c r="AHN1" s="0"/>
+      <c r="AHO1" s="0"/>
+      <c r="AHP1" s="0"/>
+      <c r="AHQ1" s="0"/>
+      <c r="AHR1" s="0"/>
+      <c r="AHS1" s="0"/>
+      <c r="AHT1" s="0"/>
+      <c r="AHU1" s="0"/>
+      <c r="AHV1" s="0"/>
+      <c r="AHW1" s="0"/>
+      <c r="AHX1" s="0"/>
+      <c r="AHY1" s="0"/>
+      <c r="AHZ1" s="0"/>
+      <c r="AIA1" s="0"/>
+      <c r="AIB1" s="0"/>
+      <c r="AIC1" s="0"/>
+      <c r="AID1" s="0"/>
+      <c r="AIE1" s="0"/>
+      <c r="AIF1" s="0"/>
+      <c r="AIG1" s="0"/>
+      <c r="AIH1" s="0"/>
+      <c r="AII1" s="0"/>
+      <c r="AIJ1" s="0"/>
+      <c r="AIK1" s="0"/>
+      <c r="AIL1" s="0"/>
+      <c r="AIM1" s="0"/>
+      <c r="AIN1" s="0"/>
+      <c r="AIO1" s="0"/>
+      <c r="AIP1" s="0"/>
+      <c r="AIQ1" s="0"/>
+      <c r="AIR1" s="0"/>
+      <c r="AIS1" s="0"/>
+      <c r="AIT1" s="0"/>
+      <c r="AIU1" s="0"/>
+      <c r="AIV1" s="0"/>
+      <c r="AIW1" s="0"/>
+      <c r="AIX1" s="0"/>
+      <c r="AIY1" s="0"/>
+      <c r="AIZ1" s="0"/>
+      <c r="AJA1" s="0"/>
+      <c r="AJB1" s="0"/>
+      <c r="AJC1" s="0"/>
+      <c r="AJD1" s="0"/>
+      <c r="AJE1" s="0"/>
+      <c r="AJF1" s="0"/>
+      <c r="AJG1" s="0"/>
+      <c r="AJH1" s="0"/>
+      <c r="AJI1" s="0"/>
+      <c r="AJJ1" s="0"/>
+      <c r="AJK1" s="0"/>
+      <c r="AJL1" s="0"/>
+      <c r="AJM1" s="0"/>
+      <c r="AJN1" s="0"/>
+      <c r="AJO1" s="0"/>
+      <c r="AJP1" s="0"/>
+      <c r="AJQ1" s="0"/>
+      <c r="AJR1" s="0"/>
+      <c r="AJS1" s="0"/>
+      <c r="AJT1" s="0"/>
+      <c r="AJU1" s="0"/>
+      <c r="AJV1" s="0"/>
+      <c r="AJW1" s="0"/>
+      <c r="AJX1" s="0"/>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
@@ -721,10 +1727,11 @@
       <c r="IU2" s="8"/>
       <c r="IV2" s="8"/>
     </row>
-    <row r="3" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="B3" s="11"/>
       <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
@@ -746,10 +1753,10 @@
       <c r="I3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="12" t="n">
+      <c r="K3" s="13" t="n">
         <v>42066</v>
       </c>
       <c r="L3" s="8"/>
@@ -998,23 +2005,24 @@
       <c r="IU3" s="8"/>
       <c r="IV3" s="8"/>
     </row>
-    <row r="4" s="9" customFormat="true" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="28.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -1023,10 +2031,10 @@
       <c r="I4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="12" t="n">
+      <c r="K4" s="13" t="n">
         <v>42100</v>
       </c>
       <c r="L4" s="8"/>
@@ -1275,11 +2283,12 @@
       <c r="IU4" s="8"/>
       <c r="IV4" s="8"/>
     </row>
-    <row r="5" s="9" customFormat="true" ht="47.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+    <row r="5" customFormat="false" ht="47.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -1294,14 +2303,18 @@
       <c r="G5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="13"/>
+      <c r="K5" s="14" t="n">
+        <v>42115</v>
+      </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1548,7 +2561,7 @@
       <c r="IU5" s="8"/>
       <c r="IV5" s="8"/>
     </row>
-    <row r="6" s="9" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1579,7 +2592,7 @@
       <c r="J6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="14" t="n">
+      <c r="K6" s="13" t="n">
         <v>42129</v>
       </c>
       <c r="L6" s="8"/>

--- a/LEDCON.MECH.ECO.xlsx
+++ b/LEDCON.MECH.ECO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t> </t>
   </si>
@@ -157,16 +157,26 @@
   </si>
   <si>
     <t>Filename changes for clarity</t>
+  </si>
+  <si>
+    <t>LEDCON.MECH.v1.5</t>
+  </si>
+  <si>
+    <t>Added 0.031” radius to notches on back of faceplate</t>
+  </si>
+  <si>
+    <t>Radius added to drawings to reduce potential vendor confusion (first articles &amp; subsequent production items from vendor had radiused corners in the notches)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="167" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -260,7 +270,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -285,6 +295,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,6 +308,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,27 +332,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L19" activeCellId="0" sqref="L19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.8111111111111"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.3259259259259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="12.7518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="21.9444444444444"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.5925925925926"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.8185185185185"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.2518518518519"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="8.75555555555556"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="21.0740740740741"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.0037037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="13"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.537037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.1222222222222"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1037037037037"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.5666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.8111111111111"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.7333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.9925925925926"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.6888888888889"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0481481481481"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.7851851851852"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.62962962962963"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="14.0666666666667"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -391,11 +409,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="36.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
@@ -420,7 +439,7 @@
       <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="7" t="n">
         <v>42066</v>
       </c>
     </row>
@@ -429,6 +448,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
@@ -453,7 +473,7 @@
       <c r="K4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="7" t="n">
         <v>42100</v>
       </c>
     </row>
@@ -462,6 +482,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
@@ -522,7 +543,7 @@
       <c r="K6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="7" t="n">
         <v>42129</v>
       </c>
     </row>
@@ -531,6 +552,7 @@
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C7" s="6"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -539,13 +561,14 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="6"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -554,13 +577,14 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -569,13 +593,14 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -584,13 +609,14 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -599,13 +625,14 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C12" s="6"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -614,13 +641,14 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -629,13 +657,14 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C14" s="6"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -644,13 +673,14 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -659,13 +689,14 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -674,13 +705,14 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="C17" s="6"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -689,13 +721,14 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="28.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C18" s="6"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -704,15 +737,16 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="58.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="C19" s="6"/>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
@@ -737,13 +771,13 @@
       <c r="K19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="6" t="n">
+      <c r="L19" s="7" t="n">
         <v>42201</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="3"/>
@@ -759,7 +793,7 @@
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="3"/>
@@ -789,10 +823,42 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
+    <row r="23" customFormat="false" ht="60.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="10" t="n">
+        <v>42256</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1.16666666666667" bottom="1" header="1" footer="0.5"/>
-  <pageSetup paperSize="1" scale="45" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;L&amp;"Times New Roman,Regular"LEDCON.MECH.ECO</oddHeader>
     <oddFooter>&amp;L&amp;"Arial,Regular"	&amp;P</oddFooter>

--- a/LEDCON.MECH.ECO.xlsx
+++ b/LEDCON.MECH.ECO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t> </t>
   </si>
@@ -157,26 +157,16 @@
   </si>
   <si>
     <t>Filename changes for clarity</t>
-  </si>
-  <si>
-    <t>LEDCON.MECH.v1.5</t>
-  </si>
-  <si>
-    <t>Added 0.031” radius to notches on back of faceplate</t>
-  </si>
-  <si>
-    <t>Radius added to drawings to reduce potential vendor confusion (first articles &amp; subsequent production items from vendor had radiused corners in the notches)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="167" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -275,43 +265,43 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -332,27 +322,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.537037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.1222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1037037037037"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.5666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.8111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="23.7333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.9925925925926"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="24.6888888888889"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0481481481481"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.40740740740741"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="22.7851851851852"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.62962962962963"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="14.0666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.7444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.5333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3111111111111"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.9518518518519"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9259259259259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.7185185185185"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.5407407407407"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="26.6666666666667"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.9962962962963"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.1851851851852"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.5962962962963"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="9.32222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="15.1888888888889"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -516,7 +506,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -743,7 +733,7 @@
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="6"/>
@@ -777,7 +767,7 @@
     </row>
     <row r="20" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="3"/>
@@ -793,7 +783,7 @@
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="3"/>
@@ -823,38 +813,6 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="60.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="10" t="n">
-        <v>42256</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1.16666666666667" bottom="1" header="1" footer="0.5"/>
